--- a/luma_register.xlsx
+++ b/luma_register.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
-    <t>Neha</t>
+    <t>omi</t>
   </si>
   <si>
     <t>Raut</t>
   </si>
   <si>
-    <t>Shivraut@gmail.com</t>
+    <t>omi123@gmail.com</t>
   </si>
   <si>
-    <t>Shivraut@123</t>
+    <t>omi123@18</t>
   </si>
   <si>
-    <t>Ira</t>
+    <t>neha</t>
   </si>
   <si>
     <t>Surve</t>
   </si>
   <si>
-    <t>SurveIra@gmail.com</t>
+    <t>neha123@gmail.com</t>
   </si>
   <si>
-    <t>Irasurve@123</t>
+    <t>tomcat@18</t>
   </si>
 </sst>
 </file>
@@ -47,8 +47,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,11 +67,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,22 +98,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,17 +127,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,14 +150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -167,6 +158,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -174,20 +187,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -197,7 +197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,67 +212,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,115 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,11 +406,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,26 +471,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,157 +495,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,12 +1022,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="Shivraut@gmail.com" tooltip="mailto:Shivraut@gmail.com"/>
-    <hyperlink ref="D1" r:id="rId2" display="Shivraut@123" tooltip="mailto:Shivraut@123"/>
-    <hyperlink ref="E1" r:id="rId2" display="Shivraut@123" tooltip="mailto:Shivraut@123"/>
-    <hyperlink ref="C2" r:id="rId3" display="SurveIra@gmail.com" tooltip="mailto:SurveIra@gmail.com"/>
-    <hyperlink ref="D2" r:id="rId4" display="Irasurve@123" tooltip="mailto:Irasurve@123"/>
-    <hyperlink ref="E2" r:id="rId4" display="Irasurve@123" tooltip="mailto:Irasurve@123"/>
+    <hyperlink ref="C1" r:id="rId1" display="omi123@gmail.com" tooltip="mailto:omi123@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="neha123@gmail.com" tooltip="mailto:neha123@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId3" display="tomcat@18" tooltip="mailto:tomcat@18"/>
+    <hyperlink ref="D1" r:id="rId4" display="omi123@18" tooltip="mailto:omi123@18"/>
+    <hyperlink ref="E1" r:id="rId4" display="omi123@18" tooltip="mailto:omi123@18"/>
+    <hyperlink ref="E2" r:id="rId3" display="tomcat@18" tooltip="mailto:tomcat@18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
